--- a/data/trans_orig/P14C32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC3FA71-4B21-45B0-94DA-E909362D4CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE13230-F5D9-4CF0-9B13-EA7AADD2313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1F5A2E6-0F37-409E-B7CF-7288B252AF9B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93FF6271-D2A8-4B8B-A40C-6BFCDAADC857}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,16 +83,16 @@
     <t>39,21%</t>
   </si>
   <si>
-    <t>82,26%</t>
+    <t>81,35%</t>
   </si>
   <si>
     <t>46,6%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -110,7 +110,7 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>67,37%</t>
+    <t>65,05%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,13 +125,13 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>89,89%</t>
+    <t>83,76%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>67,77%</t>
+    <t>70,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,22 +179,22 @@
     <t>73,55%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>50,05%</t>
+    <t>54,35%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>48,4%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,7 +308,7 @@
     <t>82,14%</t>
   </si>
   <si>
-    <t>34,65%</t>
+    <t>28,23%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -320,82 +320,82 @@
     <t>17,86%</t>
   </si>
   <si>
-    <t>65,35%</t>
+    <t>71,77%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>45,2%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>47,88%</t>
+    <t>45,34%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2071732E-022C-475D-BDB7-8BDA01F88CC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE8DBA-B5ED-4756-96CB-20591E541BFC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C32-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE13230-F5D9-4CF0-9B13-EA7AADD2313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA639A67-0B5E-4601-BBD9-CD1CCE9BDF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93FF6271-D2A8-4B8B-A40C-6BFCDAADC857}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98389BFD-D4FE-4E9C-B97B-38A1B8F9D159}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="121">
   <si>
-    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2015 (Tasa respuesta: 0,79%)</t>
+    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2016 (Tasa respuesta: 0,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,16 +83,16 @@
     <t>39,21%</t>
   </si>
   <si>
-    <t>81,35%</t>
+    <t>82,26%</t>
   </si>
   <si>
     <t>46,6%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,13 +104,13 @@
     <t>18,14%</t>
   </si>
   <si>
-    <t>81,22%</t>
+    <t>77,63%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>65,05%</t>
+    <t>65,01%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,13 +125,13 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>83,76%</t>
+    <t>84,79%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>70,96%</t>
+    <t>65,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -179,22 +179,22 @@
     <t>73,55%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>54,35%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>48,4%</t>
+    <t>39,62%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -212,7 +212,7 @@
     <t>77,02%</t>
   </si>
   <si>
-    <t>17,48%</t>
+    <t>17,28%</t>
   </si>
   <si>
     <t>63,79%</t>
@@ -221,13 +221,13 @@
     <t>71,06%</t>
   </si>
   <si>
-    <t>31,16%</t>
+    <t>25,37%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>82,52%</t>
+    <t>82,72%</t>
   </si>
   <si>
     <t>36,21%</t>
@@ -236,7 +236,7 @@
     <t>28,94%</t>
   </si>
   <si>
-    <t>68,84%</t>
+    <t>74,63%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -251,49 +251,49 @@
     <t>45,05%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>51,71%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>34,75%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>56,76%</t>
+    <t>58,08%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>52,03%</t>
+    <t>52,31%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -308,7 +308,7 @@
     <t>82,14%</t>
   </si>
   <si>
-    <t>28,23%</t>
+    <t>25,32%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -320,82 +320,82 @@
     <t>17,86%</t>
   </si>
   <si>
-    <t>71,77%</t>
+    <t>74,68%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>44,17%</t>
+    <t>39,06%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>45,34%</t>
+    <t>43,3%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CE8DBA-B5ED-4756-96CB-20591E541BFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813C606B-E0A2-4B41-B2A5-BB43A0DBD921}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
